--- a/pic_condition.xlsx
+++ b/pic_condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17a7c690b273ce1c/桌面/time_exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\time_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{03C47026-AF5C-4FB2-8A1D-6539F30A22A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5189FB8C-1C58-4050-8157-6067F0381165}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA35BC-6F54-4AC9-8D83-479E1C501964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{547E91C7-2702-4F97-9327-C6EFE04AE6C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{547E91C7-2702-4F97-9327-C6EFE04AE6C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -46,19 +46,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emo_pic\EBPgLdJe_400x400.png</t>
+    <t>time_exp\emo_pic\EBPgLdJe_400x400.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emo_pic\FBgs1RAVEAAo9TV.jpg</t>
+    <t>time_exp\emo_pic\FBgs1RAVEAAo9TV.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
+    <t>time_exp\emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emo_pic\S__42811412.jpg</t>
+    <t>time_exp\emo_pic\S__42811412.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,19 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A8336D-38C6-4D77-A6A2-259F566C0E35}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.53125" customWidth="1"/>
-    <col min="2" max="2" width="34.73046875" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -467,11 +467,91 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21">
         <v>7</v>
       </c>
     </row>

--- a/pic_condition.xlsx
+++ b/pic_condition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\time_exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式\psychopy\time_per\timeperception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA35BC-6F54-4AC9-8D83-479E1C501964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F64E1F9-E576-4DE2-90FC-DAC1724836F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{547E91C7-2702-4F97-9327-C6EFE04AE6C8}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="15391" windowHeight="9443" xr2:uid="{547E91C7-2702-4F97-9327-C6EFE04AE6C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -46,19 +46,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time_exp\emo_pic\EBPgLdJe_400x400.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_exp\emo_pic\FBgs1RAVEAAo9TV.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_exp\emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_exp\emo_pic\S__42811412.jpg</t>
+    <t>emo_pic\EBPgLdJe_400x400.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\FBgs1RAVEAAo9TV.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\S__42811412.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,19 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A8336D-38C6-4D77-A6A2-259F566C0E35}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="43.46484375" customWidth="1"/>
+    <col min="2" max="2" width="34.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -467,91 +467,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21">
         <v>7</v>
       </c>
     </row>

--- a/pic_condition.xlsx
+++ b/pic_condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式\psychopy\time_per\timeperception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F64E1F9-E576-4DE2-90FC-DAC1724836F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DAEAB3-FEF5-4219-A9BD-C8C3B9AABC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="15391" windowHeight="9443" xr2:uid="{547E91C7-2702-4F97-9327-C6EFE04AE6C8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{547E91C7-2702-4F97-9327-C6EFE04AE6C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +46,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emo_pic\EBPgLdJe_400x400.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emo_pic\FBgs1RAVEAAo9TV.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emo_pic\S__42811412.jpg</t>
+    <t>emo_pic\positive_low_7340.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_7325.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_2314.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_2156.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_8492.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_8370.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_8300.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_5621.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_1120.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_1201.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_1300.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_6230.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_2100.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_2520.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_6010.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_9331.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_7950.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_7233.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_7100.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_5500.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A8336D-38C6-4D77-A6A2-259F566C0E35}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -445,7 +509,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -453,7 +517,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -461,7 +525,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -469,9 +533,137 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
     </row>
